--- a/Code/Results/Cases/Case_5_180/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_180/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8095231131570131</v>
+        <v>0.3194395642580616</v>
       </c>
       <c r="C2">
-        <v>0.1298164218947022</v>
+        <v>0.04439482012188023</v>
       </c>
       <c r="D2">
-        <v>0.1506094632908628</v>
+        <v>0.1841706617990866</v>
       </c>
       <c r="E2">
-        <v>0.1023998897783507</v>
+        <v>0.1605469713034005</v>
       </c>
       <c r="F2">
-        <v>0.7347786655362682</v>
+        <v>1.458553068321059</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.3204423688224161</v>
+        <v>0.7272070302618978</v>
       </c>
       <c r="J2">
-        <v>0.09886811680187435</v>
+        <v>0.1822206034044171</v>
       </c>
       <c r="K2">
-        <v>0.8871807668870701</v>
+        <v>0.3387114728720633</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3222204733471656</v>
+        <v>0.2267650527506788</v>
       </c>
       <c r="N2">
-        <v>0.8507243481378208</v>
+        <v>1.782897933633006</v>
       </c>
       <c r="O2">
-        <v>1.684672248075486</v>
+        <v>3.535481513871616</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7036579956728417</v>
+        <v>0.2884028525823794</v>
       </c>
       <c r="C3">
-        <v>0.1129760459297131</v>
+        <v>0.03943736159237687</v>
       </c>
       <c r="D3">
-        <v>0.1350031837247911</v>
+        <v>0.1807656356292853</v>
       </c>
       <c r="E3">
-        <v>0.09444209974995488</v>
+        <v>0.1593308191516591</v>
       </c>
       <c r="F3">
-        <v>0.7118647979220043</v>
+        <v>1.462025641079457</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.3231945498093935</v>
+        <v>0.7326233832124132</v>
       </c>
       <c r="J3">
-        <v>0.09376517762938619</v>
+        <v>0.1820152255281613</v>
       </c>
       <c r="K3">
-        <v>0.7712443070803943</v>
+        <v>0.3046738519000769</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2820428692454513</v>
+        <v>0.2163156387701761</v>
       </c>
       <c r="N3">
-        <v>0.889939197120257</v>
+        <v>1.800013050368558</v>
       </c>
       <c r="O3">
-        <v>1.659566250981726</v>
+        <v>3.552438498571505</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6387429044037276</v>
+        <v>0.2693925950910909</v>
       </c>
       <c r="C4">
-        <v>0.1026509596909762</v>
+        <v>0.03639373987847705</v>
       </c>
       <c r="D4">
-        <v>0.1255183316714437</v>
+        <v>0.1787478435328183</v>
       </c>
       <c r="E4">
-        <v>0.08966188166061428</v>
+        <v>0.1586532487716674</v>
       </c>
       <c r="F4">
-        <v>0.6989611341965514</v>
+        <v>1.464836379882414</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.3254597060602684</v>
+        <v>0.736274236775138</v>
       </c>
       <c r="J4">
-        <v>0.09076712265471087</v>
+        <v>0.1819707202898471</v>
       </c>
       <c r="K4">
-        <v>0.7001532495150826</v>
+        <v>0.283814151381705</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2575184277588747</v>
+        <v>0.2099892080369052</v>
       </c>
       <c r="N4">
-        <v>0.9150343282226423</v>
+        <v>1.811060716742299</v>
       </c>
       <c r="O4">
-        <v>1.647106684569678</v>
+        <v>3.564513812197703</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6123035124208798</v>
+        <v>0.2616579329389879</v>
       </c>
       <c r="C5">
-        <v>0.09844561712552036</v>
+        <v>0.03515356876403075</v>
       </c>
       <c r="D5">
-        <v>0.1216760989121042</v>
+        <v>0.1779440075160181</v>
       </c>
       <c r="E5">
-        <v>0.08773916583669106</v>
+        <v>0.1583945698804179</v>
       </c>
       <c r="F5">
-        <v>0.6939839599186328</v>
+        <v>1.46615259708399</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.3265225945330634</v>
+        <v>0.7378438015603415</v>
       </c>
       <c r="J5">
-        <v>0.08957782773867251</v>
+        <v>0.1819731315524749</v>
       </c>
       <c r="K5">
-        <v>0.6711979136606061</v>
+        <v>0.2753241151063719</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2475569260864177</v>
+        <v>0.2074338411865142</v>
       </c>
       <c r="N5">
-        <v>0.9255112340182534</v>
+        <v>1.815698279955238</v>
       </c>
       <c r="O5">
-        <v>1.642743548266822</v>
+        <v>3.569853222022317</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6079139012615542</v>
+        <v>0.2603743481242873</v>
       </c>
       <c r="C6">
-        <v>0.09774741320681812</v>
+        <v>0.03494764886829671</v>
       </c>
       <c r="D6">
-        <v>0.1210394384748241</v>
+        <v>0.1778116471869708</v>
       </c>
       <c r="E6">
-        <v>0.08742138728531756</v>
+        <v>0.1583526709744874</v>
       </c>
       <c r="F6">
-        <v>0.6931741477498363</v>
+        <v>1.466381476475277</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.3267073932789231</v>
+        <v>0.7381093690523315</v>
       </c>
       <c r="J6">
-        <v>0.08938226123643744</v>
+        <v>0.1819747738171031</v>
       </c>
       <c r="K6">
-        <v>0.6663905480962455</v>
+        <v>0.273914998154055</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2459046705642827</v>
+        <v>0.207010901282608</v>
       </c>
       <c r="N6">
-        <v>0.9272658911336831</v>
+        <v>1.81647653170654</v>
       </c>
       <c r="O6">
-        <v>1.642061368082466</v>
+        <v>3.570765118965255</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6383862866044296</v>
+        <v>0.2692882327824293</v>
       </c>
       <c r="C7">
-        <v>0.1025942379951914</v>
+        <v>0.03637701389386905</v>
       </c>
       <c r="D7">
-        <v>0.1254664232140499</v>
+        <v>0.1787369279651472</v>
       </c>
       <c r="E7">
-        <v>0.08963585072051572</v>
+        <v>0.1586496894742169</v>
       </c>
       <c r="F7">
-        <v>0.6988928871813584</v>
+        <v>1.464853438962223</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.3254734806765178</v>
+        <v>0.7362950731662536</v>
       </c>
       <c r="J7">
-        <v>0.09075095407377631</v>
+        <v>0.1819706695739924</v>
       </c>
       <c r="K7">
-        <v>0.6997626990243191</v>
+        <v>0.2836996087390133</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2573839573876739</v>
+        <v>0.2099546532867116</v>
       </c>
       <c r="N7">
-        <v>0.9151746162716043</v>
+        <v>1.811122711660196</v>
       </c>
       <c r="O7">
-        <v>1.647044987216745</v>
+        <v>3.564584125991047</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.772998060584456</v>
+        <v>0.3087287655411615</v>
       </c>
       <c r="C8">
-        <v>0.1240057876032665</v>
+        <v>0.04268546499633885</v>
       </c>
       <c r="D8">
-        <v>0.1452072063483882</v>
+        <v>0.1829815338163741</v>
       </c>
       <c r="E8">
-        <v>0.09963322089257076</v>
+        <v>0.1601133174702376</v>
       </c>
       <c r="F8">
-        <v>0.7266287144651855</v>
+        <v>1.45960968527416</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.3212689344153574</v>
+        <v>0.7290071194891041</v>
       </c>
       <c r="J8">
-        <v>0.09707961103759288</v>
+        <v>0.1821328705250522</v>
       </c>
       <c r="K8">
-        <v>0.847180753689571</v>
+        <v>0.3269673964487367</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.308334710856478</v>
+        <v>0.2231436166929868</v>
       </c>
       <c r="N8">
-        <v>0.8640312767998064</v>
+        <v>1.788687396432931</v>
       </c>
       <c r="O8">
-        <v>1.675384411071263</v>
+        <v>3.540983155448643</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.038038639376623</v>
+        <v>0.3864215199584464</v>
       </c>
       <c r="C9">
-        <v>0.1661888276441346</v>
+        <v>0.05505650435704013</v>
       </c>
       <c r="D9">
-        <v>0.1847692627909368</v>
+        <v>0.1918799720280759</v>
       </c>
       <c r="E9">
-        <v>0.1201439318329243</v>
+        <v>0.1635303835631632</v>
       </c>
       <c r="F9">
-        <v>0.7908334754343613</v>
+        <v>1.454703745312138</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.3178176280735237</v>
+        <v>0.717294057675339</v>
       </c>
       <c r="J9">
-        <v>0.1106367574688889</v>
+        <v>0.1830973222096688</v>
       </c>
       <c r="K9">
-        <v>1.137454111630205</v>
+        <v>0.4121104515646721</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.409592405924343</v>
+        <v>0.2497109429754758</v>
       </c>
       <c r="N9">
-        <v>0.7720570822958095</v>
+        <v>1.748965647910213</v>
       </c>
       <c r="O9">
-        <v>1.755785229395485</v>
+        <v>3.507891647955319</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.233992791819873</v>
+        <v>0.4436968565299537</v>
       </c>
       <c r="C10">
-        <v>0.1974152535196794</v>
+        <v>0.06414379003103932</v>
       </c>
       <c r="D10">
-        <v>0.2144693225851171</v>
+        <v>0.1987639041997653</v>
       </c>
       <c r="E10">
-        <v>0.1358627281303519</v>
+        <v>0.1663723401296302</v>
       </c>
       <c r="F10">
-        <v>0.8448214691941729</v>
+        <v>1.454369587396599</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.3185388112464409</v>
+        <v>0.7102584158738203</v>
       </c>
       <c r="J10">
-        <v>0.1214056097144081</v>
+        <v>0.18419884078466</v>
       </c>
       <c r="K10">
-        <v>1.352106220737937</v>
+        <v>0.4748260051614466</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4850979919708251</v>
+        <v>0.2696520957710078</v>
       </c>
       <c r="N10">
-        <v>0.7099119812785339</v>
+        <v>1.722383528284863</v>
       </c>
       <c r="O10">
-        <v>1.832010030038106</v>
+        <v>3.491609061645732</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.323541989836599</v>
+        <v>0.469791435313482</v>
       </c>
       <c r="C11">
-        <v>0.2116996443065631</v>
+        <v>0.06827712184978907</v>
       </c>
       <c r="D11">
-        <v>0.2281454753828172</v>
+        <v>0.2019699361011646</v>
       </c>
       <c r="E11">
-        <v>0.1431775773597153</v>
+        <v>0.1677367983865565</v>
       </c>
       <c r="F11">
-        <v>0.8710584005504955</v>
+        <v>1.45492614882177</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.3196526437003193</v>
+        <v>0.7073982118875861</v>
       </c>
       <c r="J11">
-        <v>0.126505950148001</v>
+        <v>0.1847850570588534</v>
       </c>
       <c r="K11">
-        <v>1.45021704047619</v>
+        <v>0.5033882239911804</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5197582000508518</v>
+        <v>0.2788141604497696</v>
       </c>
       <c r="N11">
-        <v>0.6829032817389007</v>
+        <v>1.710854663553484</v>
       </c>
       <c r="O11">
-        <v>1.870887189084982</v>
+        <v>3.485943132268403</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.357522581000211</v>
+        <v>0.4796780476887932</v>
       </c>
       <c r="C12">
-        <v>0.2171226113932505</v>
+        <v>0.06984218311608004</v>
       </c>
       <c r="D12">
-        <v>0.2333504149820556</v>
+        <v>0.2031946012230179</v>
       </c>
       <c r="E12">
-        <v>0.1459731442714052</v>
+        <v>0.1682637425173574</v>
       </c>
       <c r="F12">
-        <v>0.8812522057259997</v>
+        <v>1.455238639386252</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.3201943947864478</v>
+        <v>0.7063640362688091</v>
       </c>
       <c r="J12">
-        <v>0.1284685659167764</v>
+        <v>0.1850192592821855</v>
       </c>
       <c r="K12">
-        <v>1.487449566853797</v>
+        <v>0.5142082297305421</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5329340553277149</v>
+        <v>0.2822964811780011</v>
       </c>
       <c r="N12">
-        <v>0.6728647908281791</v>
+        <v>1.706569980049836</v>
       </c>
       <c r="O12">
-        <v>1.886255412873965</v>
+        <v>3.484047744935793</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.350200936788923</v>
+        <v>0.4775485680611382</v>
       </c>
       <c r="C13">
-        <v>0.2159540259601869</v>
+        <v>0.06950512654272245</v>
       </c>
       <c r="D13">
-        <v>0.2322282403809766</v>
+        <v>0.2029303774029501</v>
       </c>
       <c r="E13">
-        <v>0.1453698980478002</v>
+        <v>0.1681498004144331</v>
       </c>
       <c r="F13">
-        <v>0.8790450068837146</v>
+        <v>1.45516681689152</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.3200722677298877</v>
+        <v>0.7065845890041622</v>
       </c>
       <c r="J13">
-        <v>0.1280444553324003</v>
+        <v>0.1849682768116452</v>
       </c>
       <c r="K13">
-        <v>1.479427092515664</v>
+        <v>0.511877774109422</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5300940426783924</v>
+        <v>0.2815459330053045</v>
       </c>
       <c r="N13">
-        <v>0.6750182202942243</v>
+        <v>1.707489158351746</v>
       </c>
       <c r="O13">
-        <v>1.882916149088032</v>
+        <v>3.484444826859715</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.326336116929724</v>
+        <v>0.4706047125841621</v>
       </c>
       <c r="C14">
-        <v>0.2121455047252425</v>
+        <v>0.06840588360722677</v>
       </c>
       <c r="D14">
-        <v>0.2285731526637989</v>
+        <v>0.2020704779742601</v>
       </c>
       <c r="E14">
-        <v>0.1434070457168595</v>
+        <v>0.1677799451795394</v>
       </c>
       <c r="F14">
-        <v>0.8718917688018877</v>
+        <v>1.454949819642735</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.3196947680761788</v>
+        <v>0.707312149288235</v>
       </c>
       <c r="J14">
-        <v>0.1266667765025531</v>
+        <v>0.1848040803664759</v>
       </c>
       <c r="K14">
-        <v>1.453278498278223</v>
+        <v>0.5042783132297757</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5208411327168889</v>
+        <v>0.2791003967828019</v>
       </c>
       <c r="N14">
-        <v>0.6820735729055007</v>
+        <v>1.710500535627619</v>
       </c>
       <c r="O14">
-        <v>1.872138339233771</v>
+        <v>3.485782184784483</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.311727729109322</v>
+        <v>0.4663520563918553</v>
       </c>
       <c r="C15">
-        <v>0.2098145432118201</v>
+        <v>0.06773254511320204</v>
       </c>
       <c r="D15">
-        <v>0.2263377722199351</v>
+        <v>0.2015451435023294</v>
       </c>
       <c r="E15">
-        <v>0.1422081353434876</v>
+        <v>0.1675547320362298</v>
       </c>
       <c r="F15">
-        <v>0.8675443913109007</v>
+        <v>1.454830146457311</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.3194793762619383</v>
+        <v>0.7077641714203047</v>
       </c>
       <c r="J15">
-        <v>0.1258270443060709</v>
+        <v>0.1847050952407798</v>
       </c>
       <c r="K15">
-        <v>1.43727256952775</v>
+        <v>0.4996239426339173</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5151802530933551</v>
+        <v>0.2776041021230498</v>
       </c>
       <c r="N15">
-        <v>0.6864200461842525</v>
+        <v>1.712355646565759</v>
       </c>
       <c r="O15">
-        <v>1.865622078297719</v>
+        <v>3.48663392990494</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.228149728818266</v>
+        <v>0.4419922668679419</v>
       </c>
       <c r="C16">
-        <v>0.1964835300070291</v>
+        <v>0.0638736508868476</v>
       </c>
       <c r="D16">
-        <v>0.2135790752831639</v>
+        <v>0.1985558728139267</v>
       </c>
       <c r="E16">
-        <v>0.135388156896294</v>
+        <v>0.1662846070079809</v>
       </c>
       <c r="F16">
-        <v>0.8431420278596278</v>
+        <v>1.454347459495708</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.3184824177722376</v>
+        <v>0.7104521838596689</v>
       </c>
       <c r="J16">
-        <v>0.1210765347538043</v>
+        <v>0.1841622409205925</v>
       </c>
       <c r="K16">
-        <v>1.345704910316044</v>
+        <v>0.4729600038814397</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4828396441242973</v>
+        <v>0.2690551418616636</v>
       </c>
       <c r="N16">
-        <v>0.7117030961533755</v>
+        <v>1.723148306947487</v>
       </c>
       <c r="O16">
-        <v>1.829557405984417</v>
+        <v>3.49201436253253</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.176989932382895</v>
+        <v>0.4270581103186828</v>
       </c>
       <c r="C17">
-        <v>0.1883273361065818</v>
+        <v>0.06150616343244053</v>
       </c>
       <c r="D17">
-        <v>0.2057959855416129</v>
+        <v>0.1967410598429069</v>
       </c>
       <c r="E17">
-        <v>0.1312477616427437</v>
+        <v>0.1655237404939918</v>
       </c>
       <c r="F17">
-        <v>0.8286135403391057</v>
+        <v>1.454232715915381</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.3180768982379725</v>
+        <v>0.7121883489067784</v>
       </c>
       <c r="J17">
-        <v>0.1182154238255251</v>
+        <v>0.183851002202438</v>
       </c>
       <c r="K17">
-        <v>1.289659257991445</v>
+        <v>0.4566104820268322</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4630837830010677</v>
+        <v>0.2638337274121128</v>
       </c>
       <c r="N17">
-        <v>0.7275418594873395</v>
+        <v>1.729913587651784</v>
       </c>
       <c r="O17">
-        <v>1.808538236363887</v>
+        <v>3.495760885537038</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.147601903543688</v>
+        <v>0.4184721521531287</v>
       </c>
       <c r="C18">
-        <v>0.1836434242456164</v>
+        <v>0.06014440233066409</v>
       </c>
       <c r="D18">
-        <v>0.2013347857372878</v>
+        <v>0.1957042455129141</v>
       </c>
       <c r="E18">
-        <v>0.1288816547257134</v>
+        <v>0.1650928559844296</v>
       </c>
       <c r="F18">
-        <v>0.8204139416371845</v>
+        <v>1.454233422070502</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.3179171715736544</v>
+        <v>0.7132189811463157</v>
       </c>
       <c r="J18">
-        <v>0.1165886152996123</v>
+        <v>0.1836800003621235</v>
       </c>
       <c r="K18">
-        <v>1.257466152613148</v>
+        <v>0.4472097722233741</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4517497588996804</v>
+        <v>0.260839060349717</v>
       </c>
       <c r="N18">
-        <v>0.736770138215427</v>
+        <v>1.733857833715771</v>
       </c>
       <c r="O18">
-        <v>1.79684141970921</v>
+        <v>3.498079678552784</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.137657765242409</v>
+        <v>0.4155657592207547</v>
       </c>
       <c r="C19">
-        <v>0.1820587191659371</v>
+        <v>0.05968332774276064</v>
       </c>
       <c r="D19">
-        <v>0.1998268824525979</v>
+        <v>0.1953544064676294</v>
       </c>
       <c r="E19">
-        <v>0.1280831080672336</v>
+        <v>0.1649481259500689</v>
       </c>
       <c r="F19">
-        <v>0.8176641221110756</v>
+        <v>1.45424512241145</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.3178755119404428</v>
+        <v>0.7135734383317036</v>
       </c>
       <c r="J19">
-        <v>0.1160409732235834</v>
+        <v>0.1836234793780491</v>
       </c>
       <c r="K19">
-        <v>1.246573093333211</v>
+        <v>0.4440274037991685</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4479170654276459</v>
+        <v>0.2598265925674426</v>
       </c>
       <c r="N19">
-        <v>0.739914754968801</v>
+        <v>1.735202395988099</v>
       </c>
       <c r="O19">
-        <v>1.792947313866193</v>
+        <v>3.498892936468621</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.182431994105059</v>
+        <v>0.4286474902186228</v>
       </c>
       <c r="C20">
-        <v>0.1891948031679078</v>
+        <v>0.06175819164771212</v>
       </c>
       <c r="D20">
-        <v>0.2066228959237293</v>
+        <v>0.1969335241757619</v>
       </c>
       <c r="E20">
-        <v>0.1316869123988553</v>
+        <v>0.1656040382178041</v>
       </c>
       <c r="F20">
-        <v>0.8301437727815255</v>
+        <v>1.454238028139585</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.3181124085412605</v>
+        <v>0.712000215707203</v>
       </c>
       <c r="J20">
-        <v>0.118518029637066</v>
+        <v>0.1838833048247039</v>
       </c>
       <c r="K20">
-        <v>1.295620882946849</v>
+        <v>0.4583505995755957</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4651837828871876</v>
+        <v>0.2643886722104014</v>
       </c>
       <c r="N20">
-        <v>0.7258435041186266</v>
+        <v>1.729187922851205</v>
       </c>
       <c r="O20">
-        <v>1.810734807968998</v>
+        <v>3.495345100933065</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.333343790886431</v>
+        <v>0.4726441555811505</v>
       </c>
       <c r="C21">
-        <v>0.2132637660192245</v>
+        <v>0.06872876228604241</v>
       </c>
       <c r="D21">
-        <v>0.2296460138660734</v>
+        <v>0.2023227641315799</v>
       </c>
       <c r="E21">
-        <v>0.1439828721685856</v>
+        <v>0.1678883027367242</v>
       </c>
       <c r="F21">
-        <v>0.8739856913213089</v>
+        <v>1.455010797263299</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.3198023352671022</v>
+        <v>0.7070971196353817</v>
       </c>
       <c r="J21">
-        <v>0.1270705680468325</v>
+        <v>0.1848519775487247</v>
       </c>
       <c r="K21">
-        <v>1.460956690112027</v>
+        <v>0.5065103520493608</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.523557509577536</v>
+        <v>0.2798183630344084</v>
       </c>
       <c r="N21">
-        <v>0.6799960482901541</v>
+        <v>1.709613821348314</v>
       </c>
       <c r="O21">
-        <v>1.87528615489461</v>
+        <v>3.485382582131678</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.432388771730047</v>
+        <v>0.5014283491982496</v>
       </c>
       <c r="C22">
-        <v>0.229075765209231</v>
+        <v>0.07328357553966214</v>
       </c>
       <c r="D22">
-        <v>0.2448461160844033</v>
+        <v>0.2059067421414653</v>
       </c>
       <c r="E22">
-        <v>0.1521691668717722</v>
+        <v>0.1694409439306419</v>
       </c>
       <c r="F22">
-        <v>0.9041541467350669</v>
+        <v>1.456108749336821</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.3216096127625647</v>
+        <v>0.7041778061416437</v>
       </c>
       <c r="J22">
-        <v>0.132843311504196</v>
+        <v>0.1855562461517408</v>
       </c>
       <c r="K22">
-        <v>1.569486862795031</v>
+        <v>0.5380092430540344</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5620071500815556</v>
+        <v>0.2899773384331397</v>
       </c>
       <c r="N22">
-        <v>0.6511383387999219</v>
+        <v>1.697293431696334</v>
       </c>
       <c r="O22">
-        <v>1.921262719379826</v>
+        <v>3.480329635237041</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.379484588518977</v>
+        <v>0.4860631367975543</v>
       </c>
       <c r="C23">
-        <v>0.2206283125233028</v>
+        <v>0.07085268662368094</v>
       </c>
       <c r="D23">
-        <v>0.2367187279338765</v>
+        <v>0.2039882848687853</v>
       </c>
       <c r="E23">
-        <v>0.1477855637958747</v>
+        <v>0.168606819590682</v>
       </c>
       <c r="F23">
-        <v>0.887908051917762</v>
+        <v>1.455468553610487</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.3205783081891269</v>
+        <v>0.7057098145274594</v>
       </c>
       <c r="J23">
-        <v>0.1297447498713211</v>
+        <v>0.185173860171453</v>
       </c>
       <c r="K23">
-        <v>1.511514288340209</v>
+        <v>0.5211957127048095</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5414564475187902</v>
+        <v>0.2845485264383143</v>
       </c>
       <c r="N23">
-        <v>0.6664363409221643</v>
+        <v>1.703825821957115</v>
       </c>
       <c r="O23">
-        <v>1.896362914059864</v>
+        <v>3.482893131832554</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.179971562797647</v>
+        <v>0.4279289318751864</v>
       </c>
       <c r="C24">
-        <v>0.18880260531229</v>
+        <v>0.06164425174590349</v>
       </c>
       <c r="D24">
-        <v>0.2062490081666084</v>
+        <v>0.1968464906540532</v>
       </c>
       <c r="E24">
-        <v>0.1314883280680661</v>
+        <v>0.1655677152178647</v>
       </c>
       <c r="F24">
-        <v>0.8294514793536933</v>
+        <v>1.454235418787334</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.3180961261938933</v>
+        <v>0.7120851695276755</v>
       </c>
       <c r="J24">
-        <v>0.118381165395661</v>
+        <v>0.1838686760952228</v>
       </c>
       <c r="K24">
-        <v>1.29292554519165</v>
+        <v>0.4575638959768753</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4642342989858932</v>
+        <v>0.2641377592448464</v>
       </c>
       <c r="N24">
-        <v>0.7266109500273736</v>
+        <v>1.729515825221054</v>
       </c>
       <c r="O24">
-        <v>1.809740534478806</v>
+        <v>3.495532563587403</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9661663309703385</v>
+        <v>0.3653680542055611</v>
       </c>
       <c r="C25">
-        <v>0.154744845064414</v>
+        <v>0.05170997943611155</v>
       </c>
       <c r="D25">
-        <v>0.1739641090232311</v>
+        <v>0.1894116032950137</v>
       </c>
       <c r="E25">
-        <v>0.1144885397320117</v>
+        <v>0.1625476303475004</v>
       </c>
       <c r="F25">
-        <v>0.7723304779893354</v>
+        <v>1.455456083501034</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.3182047028653869</v>
+        <v>0.7201869061991744</v>
       </c>
       <c r="J25">
-        <v>0.1068355171115556</v>
+        <v>0.1827673282248341</v>
       </c>
       <c r="K25">
-        <v>1.058734290903033</v>
+        <v>0.3890473657479276</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3820265402296386</v>
+        <v>0.2424491439794636</v>
       </c>
       <c r="N25">
-        <v>0.7960124240200592</v>
+        <v>1.759254312768175</v>
       </c>
       <c r="O25">
-        <v>1.731175372652302</v>
+        <v>3.515432863162033</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_180/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_180/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3194395642580616</v>
+        <v>0.8095231131572689</v>
       </c>
       <c r="C2">
-        <v>0.04439482012188023</v>
+        <v>0.1298164218946027</v>
       </c>
       <c r="D2">
-        <v>0.1841706617990866</v>
+        <v>0.1506094632909196</v>
       </c>
       <c r="E2">
-        <v>0.1605469713034005</v>
+        <v>0.1023998897783613</v>
       </c>
       <c r="F2">
-        <v>1.458553068321059</v>
+        <v>0.7347786655362896</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.7272070302618978</v>
+        <v>0.3204423688224303</v>
       </c>
       <c r="J2">
-        <v>0.1822206034044171</v>
+        <v>0.09886811680184593</v>
       </c>
       <c r="K2">
-        <v>0.3387114728720633</v>
+        <v>0.8871807668870133</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2267650527506788</v>
+        <v>0.3222204733471798</v>
       </c>
       <c r="N2">
-        <v>1.782897933633006</v>
+        <v>0.8507243481378177</v>
       </c>
       <c r="O2">
-        <v>3.535481513871616</v>
+        <v>1.684672248075486</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2884028525823794</v>
+        <v>0.7036579956728701</v>
       </c>
       <c r="C3">
-        <v>0.03943736159237687</v>
+        <v>0.1129760459291873</v>
       </c>
       <c r="D3">
-        <v>0.1807656356292853</v>
+        <v>0.1350031837245922</v>
       </c>
       <c r="E3">
-        <v>0.1593308191516591</v>
+        <v>0.09444209974995843</v>
       </c>
       <c r="F3">
-        <v>1.462025641079457</v>
+        <v>0.7118647979220185</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.7326233832124132</v>
+        <v>0.3231945498093971</v>
       </c>
       <c r="J3">
-        <v>0.1820152255281613</v>
+        <v>0.09376517762935066</v>
       </c>
       <c r="K3">
-        <v>0.3046738519000769</v>
+        <v>0.7712443070803943</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2163156387701761</v>
+        <v>0.2820428692454513</v>
       </c>
       <c r="N3">
-        <v>1.800013050368558</v>
+        <v>0.8899391971202082</v>
       </c>
       <c r="O3">
-        <v>3.552438498571505</v>
+        <v>1.659566250981769</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2693925950910909</v>
+        <v>0.6387429044038697</v>
       </c>
       <c r="C4">
-        <v>0.03639373987847705</v>
+        <v>0.1026509596910614</v>
       </c>
       <c r="D4">
-        <v>0.1787478435328183</v>
+        <v>0.1255183316715716</v>
       </c>
       <c r="E4">
-        <v>0.1586532487716674</v>
+        <v>0.08966188166061784</v>
       </c>
       <c r="F4">
-        <v>1.464836379882414</v>
+        <v>0.6989611341965869</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.736274236775138</v>
+        <v>0.3254597060602684</v>
       </c>
       <c r="J4">
-        <v>0.1819707202898471</v>
+        <v>0.09076712265476772</v>
       </c>
       <c r="K4">
-        <v>0.283814151381705</v>
+        <v>0.7001532495149547</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2099892080369052</v>
+        <v>0.2575184277588747</v>
       </c>
       <c r="N4">
-        <v>1.811060716742299</v>
+        <v>0.9150343282227063</v>
       </c>
       <c r="O4">
-        <v>3.564513812197703</v>
+        <v>1.647106684569707</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2616579329389879</v>
+        <v>0.6123035124207661</v>
       </c>
       <c r="C5">
-        <v>0.03515356876403075</v>
+        <v>0.09844561712536404</v>
       </c>
       <c r="D5">
-        <v>0.1779440075160181</v>
+        <v>0.1216760989120331</v>
       </c>
       <c r="E5">
-        <v>0.1583945698804179</v>
+        <v>0.08773916583673014</v>
       </c>
       <c r="F5">
-        <v>1.46615259708399</v>
+        <v>0.6939839599186541</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.7378438015603415</v>
+        <v>0.3265225945330812</v>
       </c>
       <c r="J5">
-        <v>0.1819731315524749</v>
+        <v>0.08957782773858725</v>
       </c>
       <c r="K5">
-        <v>0.2753241151063719</v>
+        <v>0.6711979136607908</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2074338411865142</v>
+        <v>0.2475569260864177</v>
       </c>
       <c r="N5">
-        <v>1.815698279955238</v>
+        <v>0.9255112340182627</v>
       </c>
       <c r="O5">
-        <v>3.569853222022317</v>
+        <v>1.642743548266907</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2603743481242873</v>
+        <v>0.6079139012615258</v>
       </c>
       <c r="C6">
-        <v>0.03494764886829671</v>
+        <v>0.0977474132070455</v>
       </c>
       <c r="D6">
-        <v>0.1778116471869708</v>
+        <v>0.1210394384747673</v>
       </c>
       <c r="E6">
-        <v>0.1583526709744874</v>
+        <v>0.08742138728534243</v>
       </c>
       <c r="F6">
-        <v>1.466381476475277</v>
+        <v>0.6931741477498718</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.7381093690523315</v>
+        <v>0.3267073932789408</v>
       </c>
       <c r="J6">
-        <v>0.1819747738171031</v>
+        <v>0.08938226123650139</v>
       </c>
       <c r="K6">
-        <v>0.273914998154055</v>
+        <v>0.6663905480962029</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.207010901282608</v>
+        <v>0.245904670564272</v>
       </c>
       <c r="N6">
-        <v>1.81647653170654</v>
+        <v>0.9272658911336853</v>
       </c>
       <c r="O6">
-        <v>3.570765118965255</v>
+        <v>1.642061368082508</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2692882327824293</v>
+        <v>0.6383862866045433</v>
       </c>
       <c r="C7">
-        <v>0.03637701389386905</v>
+        <v>0.1025942379949356</v>
       </c>
       <c r="D7">
-        <v>0.1787369279651472</v>
+        <v>0.1254664232137941</v>
       </c>
       <c r="E7">
-        <v>0.1586496894742169</v>
+        <v>0.08963585072054059</v>
       </c>
       <c r="F7">
-        <v>1.464853438962223</v>
+        <v>0.6988928871813656</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.7362950731662536</v>
+        <v>0.3254734806765249</v>
       </c>
       <c r="J7">
-        <v>0.1819706695739924</v>
+        <v>0.09075095407377631</v>
       </c>
       <c r="K7">
-        <v>0.2836996087390133</v>
+        <v>0.6997626990244044</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2099546532867116</v>
+        <v>0.2573839573876597</v>
       </c>
       <c r="N7">
-        <v>1.811122711660196</v>
+        <v>0.9151746162715595</v>
       </c>
       <c r="O7">
-        <v>3.564584125991047</v>
+        <v>1.647044987216844</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3087287655411615</v>
+        <v>0.7729980605845412</v>
       </c>
       <c r="C8">
-        <v>0.04268546499633885</v>
+        <v>0.1240057876033234</v>
       </c>
       <c r="D8">
-        <v>0.1829815338163741</v>
+        <v>0.1452072063485303</v>
       </c>
       <c r="E8">
-        <v>0.1601133174702376</v>
+        <v>0.09963322089258497</v>
       </c>
       <c r="F8">
-        <v>1.45960968527416</v>
+        <v>0.7266287144651855</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.7290071194891041</v>
+        <v>0.3212689344153787</v>
       </c>
       <c r="J8">
-        <v>0.1821328705250522</v>
+        <v>0.0970796110377421</v>
       </c>
       <c r="K8">
-        <v>0.3269673964487367</v>
+        <v>0.8471807536895994</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2231436166929868</v>
+        <v>0.3083347108564709</v>
       </c>
       <c r="N8">
-        <v>1.788687396432931</v>
+        <v>0.8640312767998193</v>
       </c>
       <c r="O8">
-        <v>3.540983155448643</v>
+        <v>1.675384411071306</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3864215199584464</v>
+        <v>1.038038639376708</v>
       </c>
       <c r="C9">
-        <v>0.05505650435704013</v>
+        <v>0.1661888276441346</v>
       </c>
       <c r="D9">
-        <v>0.1918799720280759</v>
+        <v>0.1847692627910504</v>
       </c>
       <c r="E9">
-        <v>0.1635303835631632</v>
+        <v>0.1201439318329207</v>
       </c>
       <c r="F9">
-        <v>1.454703745312138</v>
+        <v>0.7908334754343826</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.717294057675339</v>
+        <v>0.3178176280735308</v>
       </c>
       <c r="J9">
-        <v>0.1830973222096688</v>
+        <v>0.1106367574688605</v>
       </c>
       <c r="K9">
-        <v>0.4121104515646721</v>
+        <v>1.137454111630092</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2497109429754758</v>
+        <v>0.4095924059243288</v>
       </c>
       <c r="N9">
-        <v>1.748965647910213</v>
+        <v>0.7720570822958202</v>
       </c>
       <c r="O9">
-        <v>3.507891647955319</v>
+        <v>1.755785229395514</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4436968565299537</v>
+        <v>1.233992791819787</v>
       </c>
       <c r="C10">
-        <v>0.06414379003103932</v>
+        <v>0.1974152535195373</v>
       </c>
       <c r="D10">
-        <v>0.1987639041997653</v>
+        <v>0.2144693225850745</v>
       </c>
       <c r="E10">
-        <v>0.1663723401296302</v>
+        <v>0.1358627281303519</v>
       </c>
       <c r="F10">
-        <v>1.454369587396599</v>
+        <v>0.8448214691941729</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.7102584158738203</v>
+        <v>0.318538811246448</v>
       </c>
       <c r="J10">
-        <v>0.18419884078466</v>
+        <v>0.1214056097143725</v>
       </c>
       <c r="K10">
-        <v>0.4748260051614466</v>
+        <v>1.35210622073788</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2696520957710078</v>
+        <v>0.4850979919708394</v>
       </c>
       <c r="N10">
-        <v>1.722383528284863</v>
+        <v>0.7099119812785424</v>
       </c>
       <c r="O10">
-        <v>3.491609061645732</v>
+        <v>1.832010030038049</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.469791435313482</v>
+        <v>1.323541989836457</v>
       </c>
       <c r="C11">
-        <v>0.06827712184978907</v>
+        <v>0.2116996443063215</v>
       </c>
       <c r="D11">
-        <v>0.2019699361011646</v>
+        <v>0.2281454753828172</v>
       </c>
       <c r="E11">
-        <v>0.1677367983865565</v>
+        <v>0.1431775773597188</v>
       </c>
       <c r="F11">
-        <v>1.45492614882177</v>
+        <v>0.8710584005504955</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.7073982118875861</v>
+        <v>0.3196526437003193</v>
       </c>
       <c r="J11">
-        <v>0.1847850570588534</v>
+        <v>0.1265059501480792</v>
       </c>
       <c r="K11">
-        <v>0.5033882239911804</v>
+        <v>1.45021704047619</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.2788141604497696</v>
+        <v>0.5197582000508731</v>
       </c>
       <c r="N11">
-        <v>1.710854663553484</v>
+        <v>0.682903281738898</v>
       </c>
       <c r="O11">
-        <v>3.485943132268403</v>
+        <v>1.870887189084982</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4796780476887932</v>
+        <v>1.357522581000069</v>
       </c>
       <c r="C12">
-        <v>0.06984218311608004</v>
+        <v>0.2171226113931652</v>
       </c>
       <c r="D12">
-        <v>0.2031946012230179</v>
+        <v>0.2333504149818992</v>
       </c>
       <c r="E12">
-        <v>0.1682637425173574</v>
+        <v>0.1459731442714229</v>
       </c>
       <c r="F12">
-        <v>1.455238639386252</v>
+        <v>0.8812522057260139</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.7063640362688091</v>
+        <v>0.3201943947864692</v>
       </c>
       <c r="J12">
-        <v>0.1850192592821855</v>
+        <v>0.1284685659167693</v>
       </c>
       <c r="K12">
-        <v>0.5142082297305421</v>
+        <v>1.487449566853826</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2822964811780011</v>
+        <v>0.5329340553276865</v>
       </c>
       <c r="N12">
-        <v>1.706569980049836</v>
+        <v>0.6728647908281986</v>
       </c>
       <c r="O12">
-        <v>3.484047744935793</v>
+        <v>1.886255412873965</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4775485680611382</v>
+        <v>1.350200936788923</v>
       </c>
       <c r="C13">
-        <v>0.06950512654272245</v>
+        <v>0.2159540259604142</v>
       </c>
       <c r="D13">
-        <v>0.2029303774029501</v>
+        <v>0.2322282403813318</v>
       </c>
       <c r="E13">
-        <v>0.1681498004144331</v>
+        <v>0.145369898047786</v>
       </c>
       <c r="F13">
-        <v>1.45516681689152</v>
+        <v>0.8790450068837288</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.7065845890041622</v>
+        <v>0.3200722677298771</v>
       </c>
       <c r="J13">
-        <v>0.1849682768116452</v>
+        <v>0.1280444553324287</v>
       </c>
       <c r="K13">
-        <v>0.511877774109422</v>
+        <v>1.479427092515749</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2815459330053045</v>
+        <v>0.5300940426784067</v>
       </c>
       <c r="N13">
-        <v>1.707489158351746</v>
+        <v>0.6750182202942363</v>
       </c>
       <c r="O13">
-        <v>3.484444826859715</v>
+        <v>1.882916149088061</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4706047125841621</v>
+        <v>1.326336116929667</v>
       </c>
       <c r="C14">
-        <v>0.06840588360722677</v>
+        <v>0.2121455047249867</v>
       </c>
       <c r="D14">
-        <v>0.2020704779742601</v>
+        <v>0.2285731526637562</v>
       </c>
       <c r="E14">
-        <v>0.1677799451795394</v>
+        <v>0.1434070457168595</v>
       </c>
       <c r="F14">
-        <v>1.454949819642735</v>
+        <v>0.8718917688019019</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.707312149288235</v>
+        <v>0.3196947680761895</v>
       </c>
       <c r="J14">
-        <v>0.1848040803664759</v>
+        <v>0.1266667765026739</v>
       </c>
       <c r="K14">
-        <v>0.5042783132297757</v>
+        <v>1.453278498278195</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2791003967828019</v>
+        <v>0.5208411327168889</v>
       </c>
       <c r="N14">
-        <v>1.710500535627619</v>
+        <v>0.682073572905495</v>
       </c>
       <c r="O14">
-        <v>3.485782184784483</v>
+        <v>1.872138339233715</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4663520563918553</v>
+        <v>1.311727729109435</v>
       </c>
       <c r="C15">
-        <v>0.06773254511320204</v>
+        <v>0.2098145432118343</v>
       </c>
       <c r="D15">
-        <v>0.2015451435023294</v>
+        <v>0.2263377722199209</v>
       </c>
       <c r="E15">
-        <v>0.1675547320362298</v>
+        <v>0.1422081353434912</v>
       </c>
       <c r="F15">
-        <v>1.454830146457311</v>
+        <v>0.8675443913109007</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.7077641714203047</v>
+        <v>0.3194793762619454</v>
       </c>
       <c r="J15">
-        <v>0.1847050952407798</v>
+        <v>0.1258270443061207</v>
       </c>
       <c r="K15">
-        <v>0.4996239426339173</v>
+        <v>1.437272569527863</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2776041021230498</v>
+        <v>0.5151802530933551</v>
       </c>
       <c r="N15">
-        <v>1.712355646565759</v>
+        <v>0.6864200461842573</v>
       </c>
       <c r="O15">
-        <v>3.48663392990494</v>
+        <v>1.865622078297719</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4419922668679419</v>
+        <v>1.228149728818238</v>
       </c>
       <c r="C16">
-        <v>0.0638736508868476</v>
+        <v>0.1964835300074981</v>
       </c>
       <c r="D16">
-        <v>0.1985558728139267</v>
+        <v>0.2135790752830644</v>
       </c>
       <c r="E16">
-        <v>0.1662846070079809</v>
+        <v>0.1353881568962905</v>
       </c>
       <c r="F16">
-        <v>1.454347459495708</v>
+        <v>0.8431420278596278</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.7104521838596689</v>
+        <v>0.3184824177722376</v>
       </c>
       <c r="J16">
-        <v>0.1841622409205925</v>
+        <v>0.1210765347537119</v>
       </c>
       <c r="K16">
-        <v>0.4729600038814397</v>
+        <v>1.345704910316186</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2690551418616636</v>
+        <v>0.4828396441242973</v>
       </c>
       <c r="N16">
-        <v>1.723148306947487</v>
+        <v>0.7117030961533684</v>
       </c>
       <c r="O16">
-        <v>3.49201436253253</v>
+        <v>1.829557405984417</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4270581103186828</v>
+        <v>1.176989932382696</v>
       </c>
       <c r="C17">
-        <v>0.06150616343244053</v>
+        <v>0.1883273361065676</v>
       </c>
       <c r="D17">
-        <v>0.1967410598429069</v>
+        <v>0.2057959855417266</v>
       </c>
       <c r="E17">
-        <v>0.1655237404939918</v>
+        <v>0.1312477616427579</v>
       </c>
       <c r="F17">
-        <v>1.454232715915381</v>
+        <v>0.8286135403391057</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.7121883489067784</v>
+        <v>0.3180768982379689</v>
       </c>
       <c r="J17">
-        <v>0.183851002202438</v>
+        <v>0.1182154238255109</v>
       </c>
       <c r="K17">
-        <v>0.4566104820268322</v>
+        <v>1.289659257991417</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2638337274121128</v>
+        <v>0.4630837830010677</v>
       </c>
       <c r="N17">
-        <v>1.729913587651784</v>
+        <v>0.7275418594873364</v>
       </c>
       <c r="O17">
-        <v>3.495760885537038</v>
+        <v>1.808538236363887</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4184721521531287</v>
+        <v>1.147601903543773</v>
       </c>
       <c r="C18">
-        <v>0.06014440233066409</v>
+        <v>0.1836434242456306</v>
       </c>
       <c r="D18">
-        <v>0.1957042455129141</v>
+        <v>0.2013347857372167</v>
       </c>
       <c r="E18">
-        <v>0.1650928559844296</v>
+        <v>0.1288816547257134</v>
       </c>
       <c r="F18">
-        <v>1.454233422070502</v>
+        <v>0.8204139416372058</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.7132189811463157</v>
+        <v>0.3179171715736615</v>
       </c>
       <c r="J18">
-        <v>0.1836800003621235</v>
+        <v>0.1165886152996478</v>
       </c>
       <c r="K18">
-        <v>0.4472097722233741</v>
+        <v>1.257466152613176</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.260839060349717</v>
+        <v>0.4517497588996804</v>
       </c>
       <c r="N18">
-        <v>1.733857833715771</v>
+        <v>0.7367701382154386</v>
       </c>
       <c r="O18">
-        <v>3.498079678552784</v>
+        <v>1.796841419709267</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4155657592207547</v>
+        <v>1.137657765242324</v>
       </c>
       <c r="C19">
-        <v>0.05968332774276064</v>
+        <v>0.1820587191654965</v>
       </c>
       <c r="D19">
-        <v>0.1953544064676294</v>
+        <v>0.1998268824525979</v>
       </c>
       <c r="E19">
-        <v>0.1649481259500689</v>
+        <v>0.1280831080672336</v>
       </c>
       <c r="F19">
-        <v>1.45424512241145</v>
+        <v>0.8176641221110756</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.7135734383317036</v>
+        <v>0.3178755119404251</v>
       </c>
       <c r="J19">
-        <v>0.1836234793780491</v>
+        <v>0.1160409732235905</v>
       </c>
       <c r="K19">
-        <v>0.4440274037991685</v>
+        <v>1.246573093333296</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2598265925674426</v>
+        <v>0.4479170654276246</v>
       </c>
       <c r="N19">
-        <v>1.735202395988099</v>
+        <v>0.7399147549687943</v>
       </c>
       <c r="O19">
-        <v>3.498892936468621</v>
+        <v>1.792947313866279</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4286474902186228</v>
+        <v>1.182431994104945</v>
       </c>
       <c r="C20">
-        <v>0.06175819164771212</v>
+        <v>0.189194803167652</v>
       </c>
       <c r="D20">
-        <v>0.1969335241757619</v>
+        <v>0.206622895923843</v>
       </c>
       <c r="E20">
-        <v>0.1656040382178041</v>
+        <v>0.131686912398866</v>
       </c>
       <c r="F20">
-        <v>1.454238028139585</v>
+        <v>0.8301437727815539</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.712000215707203</v>
+        <v>0.3181124085412748</v>
       </c>
       <c r="J20">
-        <v>0.1838833048247039</v>
+        <v>0.118518029637066</v>
       </c>
       <c r="K20">
-        <v>0.4583505995755957</v>
+        <v>1.295620882946821</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2643886722104014</v>
+        <v>0.4651837828871805</v>
       </c>
       <c r="N20">
-        <v>1.729187922851205</v>
+        <v>0.7258435041186266</v>
       </c>
       <c r="O20">
-        <v>3.495345100933065</v>
+        <v>1.810734807968998</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4726441555811505</v>
+        <v>1.333343790886431</v>
       </c>
       <c r="C21">
-        <v>0.06872876228604241</v>
+        <v>0.2132637660192387</v>
       </c>
       <c r="D21">
-        <v>0.2023227641315799</v>
+        <v>0.2296460138661729</v>
       </c>
       <c r="E21">
-        <v>0.1678883027367242</v>
+        <v>0.1439828721685537</v>
       </c>
       <c r="F21">
-        <v>1.455010797263299</v>
+        <v>0.8739856913213089</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.7070971196353817</v>
+        <v>0.3198023352671022</v>
       </c>
       <c r="J21">
-        <v>0.1848519775487247</v>
+        <v>0.1270705680468254</v>
       </c>
       <c r="K21">
-        <v>0.5065103520493608</v>
+        <v>1.460956690112084</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2798183630344084</v>
+        <v>0.5235575095775289</v>
       </c>
       <c r="N21">
-        <v>1.709613821348314</v>
+        <v>0.6799960482902101</v>
       </c>
       <c r="O21">
-        <v>3.485382582131678</v>
+        <v>1.875286154894638</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5014283491982496</v>
+        <v>1.432388771730018</v>
       </c>
       <c r="C22">
-        <v>0.07328357553966214</v>
+        <v>0.2290757652092452</v>
       </c>
       <c r="D22">
-        <v>0.2059067421414653</v>
+        <v>0.2448461160845881</v>
       </c>
       <c r="E22">
-        <v>0.1694409439306419</v>
+        <v>0.1521691668717722</v>
       </c>
       <c r="F22">
-        <v>1.456108749336821</v>
+        <v>0.9041541467350669</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.7041778061416437</v>
+        <v>0.3216096127625612</v>
       </c>
       <c r="J22">
-        <v>0.1855562461517408</v>
+        <v>0.1328433115041108</v>
       </c>
       <c r="K22">
-        <v>0.5380092430540344</v>
+        <v>1.569486862795003</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.2899773384331397</v>
+        <v>0.5620071500815556</v>
       </c>
       <c r="N22">
-        <v>1.697293431696334</v>
+        <v>0.6511383387998593</v>
       </c>
       <c r="O22">
-        <v>3.480329635237041</v>
+        <v>1.921262719379769</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4860631367975543</v>
+        <v>1.379484588519091</v>
       </c>
       <c r="C23">
-        <v>0.07085268662368094</v>
+        <v>0.2206283125230755</v>
       </c>
       <c r="D23">
-        <v>0.2039882848687853</v>
+        <v>0.2367187279341039</v>
       </c>
       <c r="E23">
-        <v>0.168606819590682</v>
+        <v>0.1477855637958712</v>
       </c>
       <c r="F23">
-        <v>1.455468553610487</v>
+        <v>0.887908051917762</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.7057098145274594</v>
+        <v>0.3205783081891305</v>
       </c>
       <c r="J23">
-        <v>0.185173860171453</v>
+        <v>0.1297447498713282</v>
       </c>
       <c r="K23">
-        <v>0.5211957127048095</v>
+        <v>1.511514288340067</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.2845485264383143</v>
+        <v>0.5414564475187902</v>
       </c>
       <c r="N23">
-        <v>1.703825821957115</v>
+        <v>0.6664363409221616</v>
       </c>
       <c r="O23">
-        <v>3.482893131832554</v>
+        <v>1.896362914059836</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4279289318751864</v>
+        <v>1.179971562797647</v>
       </c>
       <c r="C24">
-        <v>0.06164425174590349</v>
+        <v>0.1888026053127305</v>
       </c>
       <c r="D24">
-        <v>0.1968464906540532</v>
+        <v>0.2062490081667221</v>
       </c>
       <c r="E24">
-        <v>0.1655677152178647</v>
+        <v>0.1314883280681123</v>
       </c>
       <c r="F24">
-        <v>1.454235418787334</v>
+        <v>0.8294514793536933</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.7120851695276755</v>
+        <v>0.3180961261938968</v>
       </c>
       <c r="J24">
-        <v>0.1838686760952228</v>
+        <v>0.1183811653957463</v>
       </c>
       <c r="K24">
-        <v>0.4575638959768753</v>
+        <v>1.292925545191565</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2641377592448464</v>
+        <v>0.4642342989858932</v>
       </c>
       <c r="N24">
-        <v>1.729515825221054</v>
+        <v>0.726610950027311</v>
       </c>
       <c r="O24">
-        <v>3.495532563587403</v>
+        <v>1.809740534478749</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3653680542055611</v>
+        <v>0.9661663309703385</v>
       </c>
       <c r="C25">
-        <v>0.05170997943611155</v>
+        <v>0.1547448450642719</v>
       </c>
       <c r="D25">
-        <v>0.1894116032950137</v>
+        <v>0.1739641090229895</v>
       </c>
       <c r="E25">
-        <v>0.1625476303475004</v>
+        <v>0.1144885397320117</v>
       </c>
       <c r="F25">
-        <v>1.455456083501034</v>
+        <v>0.7723304779893425</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.7201869061991744</v>
+        <v>0.3182047028653869</v>
       </c>
       <c r="J25">
-        <v>0.1827673282248341</v>
+        <v>0.1068355171114206</v>
       </c>
       <c r="K25">
-        <v>0.3890473657479276</v>
+        <v>1.058734290903089</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2424491439794636</v>
+        <v>0.3820265402296315</v>
       </c>
       <c r="N25">
-        <v>1.759254312768175</v>
+        <v>0.7960124240200548</v>
       </c>
       <c r="O25">
-        <v>3.515432863162033</v>
+        <v>1.731175372652359</v>
       </c>
     </row>
   </sheetData>
